--- a/Week 1/Week 1 Plan.xlsx
+++ b/Week 1/Week 1 Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06B2AFC-F070-4D27-8AFE-277482EA8005}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FF1CC9-5F14-4340-86D0-AE84417AAEDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Arrays and Basic Math</t>
   </si>
@@ -425,8 +425,8 @@
   </sheetPr>
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -767,7 +767,9 @@
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -788,7 +790,9 @@
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -809,7 +813,9 @@
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -830,7 +836,9 @@
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -851,7 +859,9 @@
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -891,7 +901,9 @@
       <c r="A21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -912,7 +924,9 @@
       <c r="A22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
       <c r="E22" s="5"/>
@@ -933,7 +947,9 @@
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
